--- a/testout_top_pwr_avg_analog_halffreq_post_notermination_tsmc2ff_meas.xlsx
+++ b/testout_top_pwr_avg_analog_halffreq_post_notermination_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="99">
   <si>
     <t>Process</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>ivph_static (mA)</t>
+  </si>
+  <si>
+    <t>analogin5 (V)</t>
   </si>
   <si>
     <t>analogin4 (V)</t>
@@ -662,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,7 +674,7 @@
     <col min="1" max="101" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1">
+    <row r="1" spans="1:35" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,944 +777,974 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2">
+        <v>0.657718</v>
+      </c>
+      <c r="AC2">
+        <v>0.565106</v>
+      </c>
+      <c r="AD2">
+        <v>0.47071</v>
+      </c>
+      <c r="AE2">
+        <v>0.373355</v>
+      </c>
+      <c r="AF2">
+        <v>0.267723</v>
+      </c>
+      <c r="AG2">
+        <v>0.16299</v>
+      </c>
+      <c r="AH2">
+        <v>0.710884</v>
+      </c>
+      <c r="AI2">
+        <v>0.757236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3">
+        <v>0.666821</v>
+      </c>
+      <c r="AC3">
+        <v>0.572952</v>
+      </c>
+      <c r="AD3">
+        <v>0.478398</v>
+      </c>
+      <c r="AE3">
+        <v>0.380133</v>
+      </c>
+      <c r="AF3">
+        <v>0.275104</v>
+      </c>
+      <c r="AG3">
+        <v>0.169851</v>
+      </c>
+      <c r="AH3">
+        <v>0.7078100000000001</v>
+      </c>
+      <c r="AI3">
+        <v>0.777699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="S9" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2">
-        <v>0.565106</v>
-      </c>
-      <c r="AC2">
-        <v>0.47071</v>
-      </c>
-      <c r="AD2">
-        <v>0.373355</v>
-      </c>
-      <c r="AE2">
-        <v>0.267723</v>
-      </c>
-      <c r="AF2">
-        <v>0.16299</v>
-      </c>
-      <c r="AG2">
-        <v>0.710884</v>
-      </c>
-      <c r="AH2">
-        <v>0.757236</v>
+      <c r="T9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB3">
-        <v>0.572952</v>
-      </c>
-      <c r="AC3">
-        <v>0.478398</v>
-      </c>
-      <c r="AD3">
-        <v>0.380133</v>
-      </c>
-      <c r="AE3">
-        <v>0.275104</v>
-      </c>
-      <c r="AF3">
-        <v>0.169851</v>
-      </c>
-      <c r="AG3">
-        <v>0.7078100000000001</v>
-      </c>
-      <c r="AH3">
-        <v>0.777699</v>
+    <row r="10" spans="1:35">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB4">
-        <v>0.5727719999999999</v>
-      </c>
-      <c r="AC4">
-        <v>0.489377</v>
-      </c>
-      <c r="AD4">
-        <v>0.406724</v>
-      </c>
-      <c r="AE4">
-        <v>0.283301</v>
-      </c>
-      <c r="AF4">
-        <v>0.169988</v>
-      </c>
-      <c r="AG4">
-        <v>0.709149</v>
-      </c>
-      <c r="AH4">
-        <v>0.777458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB5">
-        <v>0.574201</v>
-      </c>
-      <c r="AC5">
-        <v>0.48275</v>
-      </c>
-      <c r="AD5">
-        <v>0.393788</v>
-      </c>
-      <c r="AE5">
-        <v>0.289832</v>
-      </c>
-      <c r="AF5">
-        <v>0.177248</v>
-      </c>
-      <c r="AG5">
-        <v>0.62558</v>
-      </c>
-      <c r="AH5">
-        <v>0.693394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" t="s">
-        <v>63</v>
-      </c>
-      <c r="S6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6">
-        <v>0.574518</v>
-      </c>
-      <c r="AC6">
-        <v>0.492377</v>
-      </c>
-      <c r="AD6">
-        <v>0.429376</v>
-      </c>
-      <c r="AE6">
-        <v>0.344374</v>
-      </c>
-      <c r="AF6">
-        <v>0.188634</v>
-      </c>
-      <c r="AG6">
-        <v>0.62395</v>
-      </c>
-      <c r="AH6">
-        <v>0.693022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB7">
-        <v>0.55851</v>
-      </c>
-      <c r="AC7">
-        <v>0.458649</v>
-      </c>
-      <c r="AD7">
-        <v>0.358437</v>
-      </c>
-      <c r="AE7">
-        <v>0.258079</v>
-      </c>
-      <c r="AF7">
-        <v>0.157329</v>
-      </c>
-      <c r="AG7">
-        <v>0.751242</v>
-      </c>
-      <c r="AH7">
-        <v>0.781363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" t="s">
-        <v>86</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB8">
-        <v>0.55849</v>
-      </c>
-      <c r="AC8">
-        <v>0.460792</v>
-      </c>
-      <c r="AD8">
-        <v>0.360876</v>
-      </c>
-      <c r="AE8">
-        <v>0.258633</v>
-      </c>
-      <c r="AF8">
-        <v>0.156634</v>
-      </c>
-      <c r="AG8">
-        <v>0.752618</v>
-      </c>
-      <c r="AH8">
-        <v>0.782311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB9">
-        <v>0.559465</v>
-      </c>
-      <c r="AC9">
-        <v>0.461222</v>
-      </c>
-      <c r="AD9">
-        <v>0.361729</v>
-      </c>
-      <c r="AE9">
-        <v>0.260935</v>
-      </c>
-      <c r="AF9">
-        <v>0.159238</v>
-      </c>
-      <c r="AG9">
-        <v>0.668938</v>
-      </c>
-      <c r="AH9">
-        <v>0.697166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>83</v>
-      </c>
-      <c r="R10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB10">
-        <v>0.559044</v>
-      </c>
-      <c r="AC10">
-        <v>0.463616</v>
-      </c>
-      <c r="AD10">
-        <v>0.369677</v>
-      </c>
-      <c r="AE10">
-        <v>0.264511</v>
-      </c>
-      <c r="AF10">
-        <v>0.159009</v>
-      </c>
-      <c r="AG10">
-        <v>0.6697689999999999</v>
-      </c>
-      <c r="AH10">
-        <v>0.697875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" s="1" customFormat="1">
+    <row r="11" spans="1:35" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,278 +1847,296 @@
       <c r="AH11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI11" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" s="1" customFormat="1">
+    <row r="12" spans="1:35" s="1" customFormat="1">
       <c r="S12" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB12" s="1">
-        <v>0.55849</v>
+        <v>0.657718</v>
       </c>
       <c r="AC12" s="1">
-        <v>0.458649</v>
+        <v>0.565106</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.358437</v>
+        <v>0.47071</v>
       </c>
       <c r="AE12" s="1">
-        <v>0.258079</v>
+        <v>0.373355</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.156634</v>
+        <v>0.267723</v>
       </c>
       <c r="AG12" s="1">
-        <v>0.62395</v>
+        <v>0.16299</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.693022</v>
+        <v>0.7078100000000001</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0.757236</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="1" customFormat="1">
+    <row r="13" spans="1:35" s="1" customFormat="1">
       <c r="S13" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.574518</v>
+        <v>0.666821</v>
       </c>
       <c r="AC13" s="1">
-        <v>0.492377</v>
+        <v>0.572952</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.429376</v>
+        <v>0.478398</v>
       </c>
       <c r="AE13" s="1">
-        <v>0.344374</v>
+        <v>0.380133</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.188634</v>
+        <v>0.275104</v>
       </c>
       <c r="AG13" s="1">
-        <v>0.752618</v>
+        <v>0.169851</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.782311</v>
+        <v>0.710884</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.777699</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="1" customFormat="1">
+    <row r="14" spans="1:35" s="1" customFormat="1">
       <c r="S14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="1" customFormat="1">
+    <row r="15" spans="1:35" s="1" customFormat="1">
       <c r="S15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="1" customFormat="1">
+    <row r="16" spans="1:35" s="1" customFormat="1">
       <c r="S16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="17" spans="19:34" s="1" customFormat="1">
+    <row r="17" spans="19:35" s="1" customFormat="1">
       <c r="S17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="18" spans="19:34" s="1" customFormat="1">
+    <row r="18" spans="19:35" s="1" customFormat="1">
       <c r="S18" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB18" s="1">
-        <v>0.5661175555555555</v>
+        <v>0.6622695000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.473099</v>
+        <v>0.569029</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.3815661111111111</v>
+        <v>0.474554</v>
       </c>
       <c r="AE18" s="1">
-        <v>0.2780546666666666</v>
+        <v>0.376744</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.166769</v>
+        <v>0.2714135</v>
       </c>
       <c r="AG18" s="1">
-        <v>0.6911044444444444</v>
+        <v>0.1664205</v>
       </c>
       <c r="AH18" s="1">
-        <v>0.739724888888889</v>
+        <v>0.7093469999999999</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0.7674675</v>
       </c>
     </row>
-    <row r="19" spans="19:34" s="1" customFormat="1">
+    <row r="19" spans="19:35" s="1" customFormat="1">
       <c r="S19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.006978301578004502</v>
+        <v>0.004551499999999986</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.01226919474854719</v>
+        <v>0.00392300000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.02269472280531041</v>
+        <v>0.003843999999999986</v>
       </c>
       <c r="AE19" s="1">
-        <v>0.02567462133443582</v>
+        <v>0.003389000000000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.01016964206733835</v>
+        <v>0.003690500000000013</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.04490246240738822</v>
+        <v>0.003430500000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.04029082095201902</v>
+        <v>0.001536999999999955</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.0102315</v>
       </c>
     </row>
-    <row r="20" spans="19:34" s="1" customFormat="1">
+    <row r="20" spans="19:35" s="1" customFormat="1">
       <c r="S20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB20" s="1">
-        <v>1.232659455535943</v>
+        <v>0.6872579818336774</v>
       </c>
       <c r="AC20" s="1">
-        <v>2.593367297023919</v>
+        <v>0.6894200471329246</v>
       </c>
       <c r="AD20" s="1">
-        <v>5.947782610783735</v>
+        <v>0.8100237275420682</v>
       </c>
       <c r="AE20" s="1">
-        <v>9.233659568538979</v>
+        <v>0.8995498269381871</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.098041043202483</v>
+        <v>1.359733395722768</v>
       </c>
       <c r="AG20" s="1">
-        <v>6.497203536794472</v>
+        <v>2.061344605983039</v>
       </c>
       <c r="AH20" s="1">
-        <v>5.446730474695565</v>
+        <v>0.2166781561069484</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>1.333150915185334</v>
       </c>
     </row>
-    <row r="21" spans="19:34" s="1" customFormat="1"/>
+    <row r="21" spans="19:35" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
